--- a/Popeyes.suite/Resources/NCRKiosk.xlsx
+++ b/Popeyes.suite/Resources/NCRKiosk.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -55,6 +55,27 @@
     <t xml:space="preserve">MealDisplayName</t>
   </si>
   <si>
+    <t xml:space="preserve">KDSMealDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpoLabelDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReceiptDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SandSidesDessertsDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProteinDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SidesValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProteinValidation</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/4 lb Popcorn Shrimp Combo</t>
   </si>
   <si>
@@ -82,6 +103,24 @@
     <t xml:space="preserve">1 Biscuit</t>
   </si>
   <si>
+    <t xml:space="preserve">Shrmp Pop 1/4LB Cmb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shr Pop 1/4Lb, Fries Reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 lb Popcorn Shrimp Combo, 1/4 lb Popcorn Shrimp, Rg Cajun Fries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fries Reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shr Pop 1/4Lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
     <t xml:space="preserve">6 Pc Boneless Wings Combo</t>
   </si>
   <si>
@@ -94,10 +133,19 @@
     <t xml:space="preserve">Classic</t>
   </si>
   <si>
-    <t xml:space="preserve">Fried Pickles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diet Coke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boneless 6P Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bnls 6P Classic, Fries Reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Pc. Boneless Wings Combo, 6P Classic Boneless, Rg Cajun Fries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bnls 6P Classic</t>
   </si>
 </sst>
 </file>
@@ -107,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +177,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,12 +227,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,10 +367,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,6 +384,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="49.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="12.31"/>
   </cols>
   <sheetData>
@@ -359,40 +427,82 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -400,31 +510,52 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
